--- a/cambios de dominio.xlsx
+++ b/cambios de dominio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar.corchado\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar.corchado\Desktop\Pruebas CIMESA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C0C3FF-455B-45C5-A928-D9F3AC79C892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41293F36-DB2A-4BE3-886F-33E4649031DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{3C5D1B65-EBA6-477A-B044-4C54F67E69E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C5D1B65-EBA6-477A-B044-4C54F67E69E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Cambios CIMESA" sheetId="4" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="402">
   <si>
     <t>TIPO</t>
   </si>
@@ -1257,6 +1257,9 @@
   </si>
   <si>
     <t>??</t>
+  </si>
+  <si>
+    <t>CESAR EDUARDO CORCHADO HERNANDEZ</t>
   </si>
 </sst>
 </file>
@@ -2493,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE6254F-4074-45A3-9529-6E29BA5989C2}">
-  <dimension ref="B4:J69"/>
+  <dimension ref="B4:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4299,6 +4302,11 @@
       </c>
       <c r="C69" s="1">
         <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -4353,7 +4361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F1B5BD-D94D-489C-8A45-FE20AC7C8D85}">
   <dimension ref="B3:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -4965,7 +4973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C3626E-11EF-4B41-B8C7-E3B184F21F62}">
   <dimension ref="B3:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/cambios de dominio.xlsx
+++ b/cambios de dominio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesar.corchado\Desktop\Pruebas CIMESA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41293F36-DB2A-4BE3-886F-33E4649031DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C9B5E-D0A7-46F2-8411-4E59E56025E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C5D1B65-EBA6-477A-B044-4C54F67E69E2}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="403">
   <si>
     <t>TIPO</t>
   </si>
@@ -1260,6 +1260,9 @@
   </si>
   <si>
     <t>CESAR EDUARDO CORCHADO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>PRUEBA GIT HUB</t>
   </si>
 </sst>
 </file>
@@ -2496,10 +2499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE6254F-4074-45A3-9529-6E29BA5989C2}">
-  <dimension ref="B4:J71"/>
+  <dimension ref="B4:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,6 +4310,11 @@
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
